--- a/GBDS FEBRUARY FILES 2026/DSSR GBDS MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/DSSR GBDS MONTH OF FEBRUARY 2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102682F-5B8A-45B8-BB5E-6A754814B6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E36B2B-EB13-4661-92F4-50D880960B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'01,09'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'01,09 (2)'!$A$1:$W$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!$A$1:$Q$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!$A$1:$Q$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="79">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>BOTT.</t>
+  </si>
+  <si>
+    <t>PP500C</t>
+  </si>
+  <si>
+    <t>SML500C</t>
+  </si>
+  <si>
+    <t>MGYZ</t>
   </si>
 </sst>
 </file>
@@ -1689,13 +1698,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2018,14 +2027,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY82"/>
+  <dimension ref="A1:AY88"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2297,7 @@
     </row>
     <row r="9" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f t="shared" ref="A9:A51" si="0">A8+1</f>
+        <f t="shared" ref="A9:A57" si="0">A8+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="54" t="s">
@@ -3030,7 +3039,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27"/>
@@ -3075,7 +3084,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="27"/>
@@ -3101,7 +3110,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27"/>
@@ -3130,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="27"/>
@@ -3159,7 +3168,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="27"/>
@@ -3181,7 +3190,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="27"/>
@@ -3203,7 +3212,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="27"/>
@@ -3225,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="27"/>
@@ -3247,7 +3256,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="27"/>
@@ -3269,7 +3278,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="27"/>
@@ -3291,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="27"/>
@@ -3312,7 +3321,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="27"/>
@@ -3333,8 +3342,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>33</v>
+      <c r="B37" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="56"/>
@@ -3350,13 +3359,13 @@
       <c r="N37" s="67"/>
       <c r="O37" s="66"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>34</v>
+      <c r="B38" s="54" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="27"/>
@@ -3377,8 +3386,8 @@
         <f>A38+1</f>
         <v>34</v>
       </c>
-      <c r="B39" s="54" t="s">
-        <v>35</v>
+      <c r="B39" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="56"/>
@@ -3399,8 +3408,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B40" s="59" t="s">
-        <v>36</v>
+      <c r="B40" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="C40" s="60"/>
       <c r="D40" s="61"/>
@@ -3416,13 +3425,13 @@
       <c r="N40" s="60"/>
       <c r="O40" s="63"/>
     </row>
-    <row r="41" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>43</v>
+      <c r="B41" s="59" t="s">
+        <v>36</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="27"/>
@@ -3442,8 +3451,8 @@
       <c r="A42" s="3">
         <v>36</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>37</v>
+      <c r="B42" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="56"/>
@@ -3460,13 +3469,13 @@
       <c r="O42" s="66"/>
       <c r="Q42" s="50"/>
     </row>
-    <row r="43" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>45</v>
+      <c r="B43" s="54" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="27"/>
@@ -3486,8 +3495,8 @@
       <c r="A44" s="3">
         <v>37</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>38</v>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="27"/>
@@ -3509,7 +3518,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="27"/>
@@ -3531,7 +3540,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="27"/>
@@ -3553,7 +3562,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="27"/>
@@ -3575,7 +3584,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="27"/>
@@ -3597,7 +3606,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="27"/>
@@ -3619,7 +3628,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="27"/>
@@ -3641,7 +3650,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="27"/>
@@ -3657,195 +3666,271 @@
       <c r="N51" s="28"/>
       <c r="O51" s="30"/>
     </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="30"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="30"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="30"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="30"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="30"/>
+    </row>
+    <row r="58" spans="1:15" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="48"/>
-    </row>
-    <row r="53" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="138" t="s">
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="48"/>
+    </row>
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G60" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="139"/>
-      <c r="G55" s="25" t="s">
+      <c r="I60" s="33"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="35"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F61" s="139"/>
+      <c r="G61" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="140"/>
-      <c r="G56" s="25" t="s">
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="38"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F62" s="140"/>
+      <c r="G62" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="41"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="141" t="s">
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="41"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F63" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G63" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I57" s="39"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="141"/>
-      <c r="G58" s="25" t="s">
+      <c r="I63" s="39"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="41"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F64" s="141"/>
+      <c r="G64" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="38"/>
-    </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F59" s="142"/>
-      <c r="G59" s="26" t="s">
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="38"/>
+    </row>
+    <row r="65" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="142"/>
+      <c r="G65" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="32"/>
-    </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="17" t="s">
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D67" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="20" t="s">
+      <c r="I67" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="21" t="s">
+      <c r="J67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="21" t="s">
+      <c r="K67" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L61" s="19" t="s">
+      <c r="L67" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O61" s="18" t="s">
+      <c r="O67" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="22" t="s">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="23"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="O62" s="23"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="23"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="O68" s="23"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="O63" s="23"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="O64" s="23"/>
-    </row>
-    <row r="65" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="O66" s="23"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="O67" s="23"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="O68" s="23"/>
-    </row>
-    <row r="69" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="O69" s="23"/>
+    </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="C70" s="11"/>
       <c r="D70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
@@ -3853,21 +3938,10 @@
       <c r="L70" s="23"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="O71" s="23"/>
-    </row>
+    <row r="71" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -3877,10 +3951,21 @@
       <c r="L72" s="23"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="O73" s="23"/>
+    </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -3890,23 +3975,12 @@
       <c r="L74" s="23"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="O75" s="23"/>
-    </row>
+    <row r="75" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="C76" s="23"/>
       <c r="D76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
@@ -3914,10 +3988,21 @@
       <c r="L76" s="23"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="O77" s="23"/>
+    </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -3927,21 +4012,10 @@
       <c r="L78" s="23"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="O79" s="23"/>
-    </row>
+    <row r="79" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -3951,11 +4025,23 @@
       <c r="L80" s="23"/>
       <c r="O80" s="23"/>
     </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="O81" s="23"/>
+    </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="C82" s="11"/>
       <c r="D82" s="23"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
@@ -3963,11 +4049,60 @@
       <c r="L82" s="23"/>
       <c r="O82" s="23"/>
     </row>
+    <row r="83" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="O84" s="23"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="O85" s="23"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="O86" s="23"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="O88" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F63:F65"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
@@ -3977,7 +4112,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4075,7 +4210,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -4085,13 +4220,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -4112,7 +4247,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -4120,9 +4255,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="157"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -7177,11 +7312,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -7189,6 +7319,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:V4"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7290,7 +7425,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -7300,13 +7435,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -7327,7 +7462,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -7335,9 +7470,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="157"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -10487,7 +10622,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -10497,13 +10632,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -10524,7 +10659,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -10532,9 +10667,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="157"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -13673,7 +13808,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -13683,13 +13818,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="157" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -13710,7 +13845,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="158"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -13718,9 +13853,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="157"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>

--- a/GBDS FEBRUARY FILES 2026/DSSR GBDS MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/DSSR GBDS MONTH OF FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882F5F3-F0B7-4750-A44E-530C6F47964A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825FBF36-6A92-4A04-9BD3-CFA94CBE195C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1509,6 +1509,51 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1566,59 +1611,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1984,11 +1984,11 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -2007,44 +2007,44 @@
     <row r="3" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129" t="s">
+      <c r="E4" s="143"/>
+      <c r="F4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="135"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="150"/>
     </row>
     <row r="5" spans="1:51" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="126"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="141"/>
       <c r="D5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="130"/>
-      <c r="G5" s="132"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="147"/>
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="118" t="s">
+      <c r="F60" s="133" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="24" t="s">
@@ -3737,7 +3737,7 @@
       <c r="L60" s="35"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="119"/>
+      <c r="F61" s="134"/>
       <c r="G61" s="25" t="s">
         <v>51</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="L61" s="38"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F62" s="120"/>
+      <c r="F62" s="135"/>
       <c r="G62" s="25" t="s">
         <v>52</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="L62" s="41"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F63" s="121" t="s">
+      <c r="F63" s="136" t="s">
         <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
@@ -3769,7 +3769,7 @@
       <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="121"/>
+      <c r="F64" s="136"/>
       <c r="G64" s="25" t="s">
         <v>51</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="L64" s="38"/>
     </row>
     <row r="65" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="122"/>
+      <c r="F65" s="137"/>
       <c r="G65" s="26" t="s">
         <v>52</v>
       </c>
@@ -4037,7 +4037,7 @@
   <dimension ref="A1:BF90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:V1"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -4082,15 +4082,15 @@
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="123">
-        <v>46031</v>
-      </c>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="125"/>
+      <c r="P1" s="138">
+        <v>46066</v>
+      </c>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="140"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -4113,60 +4113,60 @@
     <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="129" t="s">
+      <c r="F4" s="143"/>
+      <c r="G4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="133" t="s">
+      <c r="L4" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="135"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="150"/>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="138"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="137"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="153"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -4185,10 +4185,10 @@
       <c r="Q5" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="152" t="s">
+      <c r="R5" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="146" t="s">
+      <c r="S5" s="124" t="s">
         <v>75</v>
       </c>
       <c r="T5" s="7"/>
@@ -4237,8 +4237,8 @@
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="84"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="148"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="126"/>
       <c r="T6" s="44"/>
       <c r="U6" s="28"/>
       <c r="V6" s="30"/>
@@ -4283,8 +4283,8 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="84"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="148"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="44"/>
       <c r="U7" s="28"/>
       <c r="V7" s="30"/>
@@ -4342,11 +4342,11 @@
       <c r="O8" s="91"/>
       <c r="P8" s="91"/>
       <c r="Q8" s="92"/>
-      <c r="R8" s="151">
+      <c r="R8" s="129">
         <f t="shared" ref="R8:R12" si="1">L8+N8+P8</f>
         <v>0</v>
       </c>
-      <c r="S8" s="149">
+      <c r="S8" s="127">
         <f t="shared" ref="S8:S12" si="2">M8+O8+Q8</f>
         <v>0</v>
       </c>
@@ -4408,11 +4408,11 @@
       <c r="O9" s="94"/>
       <c r="P9" s="94"/>
       <c r="Q9" s="95"/>
-      <c r="R9" s="151">
+      <c r="R9" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="149">
+      <c r="S9" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4472,11 +4472,11 @@
       <c r="O10" s="91"/>
       <c r="P10" s="91"/>
       <c r="Q10" s="92"/>
-      <c r="R10" s="151">
+      <c r="R10" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S10" s="149">
+      <c r="S10" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4538,11 +4538,11 @@
       <c r="O11" s="91"/>
       <c r="P11" s="91"/>
       <c r="Q11" s="92"/>
-      <c r="R11" s="151">
+      <c r="R11" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11" s="149">
+      <c r="S11" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4604,11 +4604,11 @@
       <c r="O12" s="91"/>
       <c r="P12" s="91"/>
       <c r="Q12" s="92"/>
-      <c r="R12" s="151">
+      <c r="R12" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12" s="149">
+      <c r="S12" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4682,11 +4682,11 @@
       <c r="Q13" s="95">
         <v>2</v>
       </c>
-      <c r="R13" s="151">
+      <c r="R13" s="129">
         <f>L13+N13+P13</f>
         <v>15</v>
       </c>
-      <c r="S13" s="149">
+      <c r="S13" s="127">
         <f>M13+O13+Q13</f>
         <v>2</v>
       </c>
@@ -4755,11 +4755,11 @@
       <c r="O14" s="91"/>
       <c r="P14" s="91"/>
       <c r="Q14" s="92"/>
-      <c r="R14" s="151">
+      <c r="R14" s="129">
         <f t="shared" ref="R14:R59" si="6">L14+N14+P14</f>
         <v>0</v>
       </c>
-      <c r="S14" s="149">
+      <c r="S14" s="127">
         <f t="shared" ref="S14:S59" si="7">M14+O14+Q14</f>
         <v>0</v>
       </c>
@@ -4819,11 +4819,11 @@
       <c r="O15" s="91"/>
       <c r="P15" s="91"/>
       <c r="Q15" s="92"/>
-      <c r="R15" s="151">
+      <c r="R15" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S15" s="149">
+      <c r="S15" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4883,11 +4883,11 @@
       <c r="O16" s="91"/>
       <c r="P16" s="91"/>
       <c r="Q16" s="92"/>
-      <c r="R16" s="151">
+      <c r="R16" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S16" s="149">
+      <c r="S16" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4947,11 +4947,11 @@
       <c r="O17" s="91"/>
       <c r="P17" s="91"/>
       <c r="Q17" s="92"/>
-      <c r="R17" s="151">
+      <c r="R17" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S17" s="149">
+      <c r="S17" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5013,11 +5013,11 @@
       <c r="O18" s="91"/>
       <c r="P18" s="91"/>
       <c r="Q18" s="92"/>
-      <c r="R18" s="151">
+      <c r="R18" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S18" s="149">
+      <c r="S18" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5077,11 +5077,11 @@
       <c r="O19" s="91"/>
       <c r="P19" s="91"/>
       <c r="Q19" s="92"/>
-      <c r="R19" s="151">
+      <c r="R19" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S19" s="149">
+      <c r="S19" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5143,11 +5143,11 @@
       <c r="O20" s="91"/>
       <c r="P20" s="91"/>
       <c r="Q20" s="92"/>
-      <c r="R20" s="151">
+      <c r="R20" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S20" s="149">
+      <c r="S20" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5209,11 +5209,11 @@
       <c r="O21" s="91"/>
       <c r="P21" s="91"/>
       <c r="Q21" s="92"/>
-      <c r="R21" s="151">
+      <c r="R21" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S21" s="149">
+      <c r="S21" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5275,11 +5275,11 @@
       <c r="O22" s="91"/>
       <c r="P22" s="91"/>
       <c r="Q22" s="92"/>
-      <c r="R22" s="151">
+      <c r="R22" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S22" s="149">
+      <c r="S22" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5341,11 +5341,11 @@
       <c r="O23" s="91"/>
       <c r="P23" s="91"/>
       <c r="Q23" s="92"/>
-      <c r="R23" s="151">
+      <c r="R23" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S23" s="149">
+      <c r="S23" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5414,11 +5414,11 @@
       <c r="O24" s="91"/>
       <c r="P24" s="91"/>
       <c r="Q24" s="92"/>
-      <c r="R24" s="151">
+      <c r="R24" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S24" s="149">
+      <c r="S24" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5487,11 +5487,11 @@
       <c r="O25" s="91"/>
       <c r="P25" s="91"/>
       <c r="Q25" s="92"/>
-      <c r="R25" s="151">
+      <c r="R25" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S25" s="149">
+      <c r="S25" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5555,11 +5555,11 @@
       <c r="O26" s="91"/>
       <c r="P26" s="91"/>
       <c r="Q26" s="92"/>
-      <c r="R26" s="151">
+      <c r="R26" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S26" s="149">
+      <c r="S26" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5600,11 +5600,11 @@
       <c r="O27" s="91"/>
       <c r="P27" s="91"/>
       <c r="Q27" s="92"/>
-      <c r="R27" s="151">
+      <c r="R27" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S27" s="149">
+      <c r="S27" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5648,11 +5648,11 @@
       <c r="O28" s="91"/>
       <c r="P28" s="91"/>
       <c r="Q28" s="92"/>
-      <c r="R28" s="151">
+      <c r="R28" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S28" s="149">
+      <c r="S28" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5702,11 +5702,11 @@
         <v>5</v>
       </c>
       <c r="Q29" s="92"/>
-      <c r="R29" s="151">
+      <c r="R29" s="129">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="S29" s="149">
+      <c r="S29" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5750,11 +5750,11 @@
       <c r="O30" s="91"/>
       <c r="P30" s="91"/>
       <c r="Q30" s="92"/>
-      <c r="R30" s="151">
+      <c r="R30" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S30" s="149">
+      <c r="S30" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5793,11 +5793,11 @@
       <c r="O31" s="91"/>
       <c r="P31" s="91"/>
       <c r="Q31" s="92"/>
-      <c r="R31" s="151">
+      <c r="R31" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S31" s="149">
+      <c r="S31" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5834,11 +5834,11 @@
       <c r="O32" s="91"/>
       <c r="P32" s="91"/>
       <c r="Q32" s="92"/>
-      <c r="R32" s="151">
+      <c r="R32" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S32" s="149">
+      <c r="S32" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5875,11 +5875,11 @@
       <c r="O33" s="91"/>
       <c r="P33" s="91"/>
       <c r="Q33" s="92"/>
-      <c r="R33" s="151">
+      <c r="R33" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S33" s="149">
+      <c r="S33" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5916,11 +5916,11 @@
       <c r="O34" s="91"/>
       <c r="P34" s="91"/>
       <c r="Q34" s="92"/>
-      <c r="R34" s="151">
+      <c r="R34" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S34" s="149">
+      <c r="S34" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5965,11 +5965,11 @@
       <c r="O35" s="91"/>
       <c r="P35" s="91"/>
       <c r="Q35" s="92"/>
-      <c r="R35" s="151">
+      <c r="R35" s="129">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="S35" s="149">
+      <c r="S35" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6006,11 +6006,11 @@
       <c r="O36" s="91"/>
       <c r="P36" s="91"/>
       <c r="Q36" s="92"/>
-      <c r="R36" s="151">
+      <c r="R36" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S36" s="149">
+      <c r="S36" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6047,11 +6047,11 @@
       <c r="O37" s="91"/>
       <c r="P37" s="91"/>
       <c r="Q37" s="92"/>
-      <c r="R37" s="151">
+      <c r="R37" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S37" s="149">
+      <c r="S37" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6098,11 +6098,11 @@
         <v>6</v>
       </c>
       <c r="Q38" s="95"/>
-      <c r="R38" s="151">
+      <c r="R38" s="129">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="S38" s="149">
+      <c r="S38" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6141,11 +6141,11 @@
       <c r="O39" s="91"/>
       <c r="P39" s="91"/>
       <c r="Q39" s="92"/>
-      <c r="R39" s="151">
+      <c r="R39" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S39" s="149">
+      <c r="S39" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6158,14 +6158,14 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="143"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="121"/>
       <c r="H40" s="116"/>
       <c r="I40" s="93">
         <f t="shared" si="4"/>
@@ -6182,17 +6182,17 @@
       <c r="O40" s="91"/>
       <c r="P40" s="91"/>
       <c r="Q40" s="92"/>
-      <c r="R40" s="151">
+      <c r="R40" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S40" s="149">
+      <c r="S40" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T40" s="44"/>
-      <c r="U40" s="144"/>
-      <c r="V40" s="145"/>
+      <c r="U40" s="122"/>
+      <c r="V40" s="123"/>
     </row>
     <row r="41" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -6229,11 +6229,11 @@
       <c r="O41" s="91"/>
       <c r="P41" s="91"/>
       <c r="Q41" s="92"/>
-      <c r="R41" s="151">
+      <c r="R41" s="129">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="S41" s="149">
+      <c r="S41" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6276,11 +6276,11 @@
         <v>5</v>
       </c>
       <c r="Q42" s="97"/>
-      <c r="R42" s="151">
+      <c r="R42" s="129">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="S42" s="149">
+      <c r="S42" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6317,11 +6317,11 @@
       <c r="O43" s="91"/>
       <c r="P43" s="91"/>
       <c r="Q43" s="92"/>
-      <c r="R43" s="151">
+      <c r="R43" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S43" s="149">
+      <c r="S43" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6366,11 +6366,11 @@
         <v>237</v>
       </c>
       <c r="Q44" s="95"/>
-      <c r="R44" s="151">
+      <c r="R44" s="129">
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
-      <c r="S44" s="149">
+      <c r="S44" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6408,11 +6408,11 @@
       <c r="O45" s="91"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="92"/>
-      <c r="R45" s="151">
+      <c r="R45" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S45" s="149">
+      <c r="S45" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6449,11 +6449,11 @@
       <c r="O46" s="91"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="92"/>
-      <c r="R46" s="151">
+      <c r="R46" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S46" s="149">
+      <c r="S46" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6490,11 +6490,11 @@
       <c r="O47" s="91"/>
       <c r="P47" s="91"/>
       <c r="Q47" s="92"/>
-      <c r="R47" s="151">
+      <c r="R47" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S47" s="149">
+      <c r="S47" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6535,11 +6535,11 @@
       <c r="O48" s="91"/>
       <c r="P48" s="91"/>
       <c r="Q48" s="92"/>
-      <c r="R48" s="151">
+      <c r="R48" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S48" s="149">
+      <c r="S48" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6576,11 +6576,11 @@
       <c r="O49" s="91"/>
       <c r="P49" s="91"/>
       <c r="Q49" s="92"/>
-      <c r="R49" s="151">
+      <c r="R49" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S49" s="149">
+      <c r="S49" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6617,11 +6617,11 @@
       <c r="O50" s="91"/>
       <c r="P50" s="91"/>
       <c r="Q50" s="92"/>
-      <c r="R50" s="151">
+      <c r="R50" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S50" s="149">
+      <c r="S50" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6658,11 +6658,11 @@
       <c r="O51" s="91"/>
       <c r="P51" s="91"/>
       <c r="Q51" s="92"/>
-      <c r="R51" s="151">
+      <c r="R51" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S51" s="149">
+      <c r="S51" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6701,11 +6701,11 @@
       <c r="O52" s="91"/>
       <c r="P52" s="91"/>
       <c r="Q52" s="92"/>
-      <c r="R52" s="151">
+      <c r="R52" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S52" s="149">
+      <c r="S52" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6742,11 +6742,11 @@
       <c r="O53" s="91"/>
       <c r="P53" s="91"/>
       <c r="Q53" s="92"/>
-      <c r="R53" s="151">
+      <c r="R53" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S53" s="149">
+      <c r="S53" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6785,11 +6785,11 @@
       <c r="O54" s="91"/>
       <c r="P54" s="91"/>
       <c r="Q54" s="92"/>
-      <c r="R54" s="151">
+      <c r="R54" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S54" s="149">
+      <c r="S54" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6824,11 +6824,11 @@
       <c r="O55" s="91"/>
       <c r="P55" s="91"/>
       <c r="Q55" s="92"/>
-      <c r="R55" s="151">
+      <c r="R55" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S55" s="149">
+      <c r="S55" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6863,11 +6863,11 @@
       <c r="O56" s="91"/>
       <c r="P56" s="91"/>
       <c r="Q56" s="92"/>
-      <c r="R56" s="151">
+      <c r="R56" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S56" s="149">
+      <c r="S56" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6902,11 +6902,11 @@
       <c r="O57" s="91"/>
       <c r="P57" s="91"/>
       <c r="Q57" s="92"/>
-      <c r="R57" s="151">
+      <c r="R57" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S57" s="149">
+      <c r="S57" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6941,11 +6941,11 @@
       <c r="O58" s="91"/>
       <c r="P58" s="91"/>
       <c r="Q58" s="92"/>
-      <c r="R58" s="151">
+      <c r="R58" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S58" s="149">
+      <c r="S58" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6980,11 +6980,11 @@
       <c r="O59" s="91"/>
       <c r="P59" s="91"/>
       <c r="Q59" s="92"/>
-      <c r="R59" s="151">
+      <c r="R59" s="129">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S59" s="149">
+      <c r="S59" s="127">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7050,11 +7050,11 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="R60" s="150">
+      <c r="R60" s="128">
         <f t="shared" si="8"/>
         <v>478</v>
       </c>
-      <c r="S60" s="147">
+      <c r="S60" s="125">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="61" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G62" s="118" t="s">
+      <c r="G62" s="133" t="s">
         <v>65</v>
       </c>
       <c r="H62" s="74"/>
@@ -7082,7 +7082,7 @@
       <c r="S62" s="35"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G63" s="119"/>
+      <c r="G63" s="134"/>
       <c r="H63" s="75"/>
       <c r="I63" s="75"/>
       <c r="J63" s="25" t="s">
@@ -7098,7 +7098,7 @@
       <c r="S63" s="38"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G64" s="120"/>
+      <c r="G64" s="135"/>
       <c r="H64" s="76"/>
       <c r="I64" s="76"/>
       <c r="J64" s="25" t="s">
@@ -7114,7 +7114,7 @@
       <c r="S64" s="41"/>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G65" s="121" t="s">
+      <c r="G65" s="136" t="s">
         <v>64</v>
       </c>
       <c r="H65" s="77"/>
@@ -7132,7 +7132,7 @@
       <c r="S65" s="41"/>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G66" s="121"/>
+      <c r="G66" s="136"/>
       <c r="H66" s="77"/>
       <c r="I66" s="77"/>
       <c r="J66" s="25" t="s">
@@ -7148,7 +7148,7 @@
       <c r="S66" s="38"/>
     </row>
     <row r="67" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G67" s="122"/>
+      <c r="G67" s="137"/>
       <c r="H67" s="78"/>
       <c r="I67" s="78"/>
       <c r="J67" s="26" t="s">
